--- a/model/compared_results/letter_img_result/letter_img_results.xlsx
+++ b/model/compared_results/letter_img_result/letter_img_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9974</v>
+        <v>0.9976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9455</v>
+        <v>0.9509</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9994</v>
+        <v>0.9993</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9812</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.972</v>
+        <v>0.9747</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9997</v>
+        <v>0.9998</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9937</v>
+        <v>0.9931</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9906</v>
+        <v>0.9902</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9724</v>
+        <v>0.9751</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         <v>0.9968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9605</v>
+        <v>0.9591</v>
       </c>
       <c r="D3" t="n">
         <v>0.9982</v>
@@ -538,19 +538,19 @@
         <v>0.9774</v>
       </c>
       <c r="F3" t="n">
-        <v>0.979</v>
+        <v>0.9784</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9996</v>
+        <v>0.9997</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9927</v>
+        <v>0.9922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9761</v>
+        <v>0.9766</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9792999999999999</v>
+        <v>0.9787</v>
       </c>
     </row>
     <row r="4">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9843</v>
+        <v>0.9853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9809</v>
+        <v>0.9837</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9844000000000001</v>
+        <v>0.9854000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9064</v>
+        <v>0.9117</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9826</v>
+        <v>0.9845</v>
       </c>
       <c r="G4" t="n">
         <v>0.9991</v>
@@ -581,10 +581,10 @@
         <v>0.9828</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8528</v>
+        <v>0.8595</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9827</v>
+        <v>0.9845</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.948</v>
+        <v>0.9444</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9769</v>
+        <v>0.9741</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9469</v>
+        <v>0.9433</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7764</v>
+        <v>0.7667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9617</v>
+        <v>0.9585</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9926</v>
+        <v>0.9921</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8972</v>
+        <v>0.8894</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7062</v>
+        <v>0.6975</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9619</v>
+        <v>0.9587</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.965</v>
+        <v>0.967</v>
       </c>
       <c r="C6" t="n">
-        <v>0.955</v>
+        <v>0.9578</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9653</v>
+        <v>0.9674</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8248</v>
+        <v>0.8332000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9601</v>
+        <v>0.9625</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9933</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8773</v>
+        <v>0.8404</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7565</v>
+        <v>0.7662</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9602000000000001</v>
+        <v>0.9626</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9809</v>
+        <v>0.9812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9836</v>
+        <v>0.9905</v>
       </c>
       <c r="D7" t="n">
         <v>0.9808</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8905999999999999</v>
+        <v>0.8922</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9822</v>
+        <v>0.9856</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9991</v>
+        <v>0.9993</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9834000000000001</v>
+        <v>0.9864000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8308</v>
+        <v>0.8316</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9822</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="8">
@@ -789,6 +789,176 @@
       </c>
       <c r="J10" t="n">
         <v>0.9558</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9962</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9087</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9996</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9724</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9866</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9923999999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9542</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9852</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9387</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9078000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8658</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9628</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OverBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9966</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9305</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9752999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9641</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9982</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9866</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9648</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OverBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9748</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9714</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9749</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8629</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9731</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9976</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9571</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7978</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9732</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SMOTEBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9967</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9292</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9634</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9988</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9886</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9641999999999999</v>
       </c>
     </row>
   </sheetData>
